--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotTableWithNoneTheme/outputfile.xlsx
@@ -240,7 +240,7 @@
   </x:cacheSource>
   <x:cacheFields count="6">
     <x:cacheField name="Name">
-      <x:sharedItems count="5">
+      <x:sharedItems>
         <x:s v="Croissant"/>
         <x:s v="Doughnut"/>
         <x:s v="Bearclaw"/>
@@ -249,19 +249,21 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsString="0" containsNumber="1" containsInteger="1"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
+      <x:sharedItems containsString="0" containsNumber="1" containsInteger="1"/>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
+      <x:sharedItems containsString="0" containsNumber="1"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsBlank="1">
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
+      <x:sharedItems containsDate="1" containsString="0"/>
     </x:cacheField>
   </x:cacheFields>
   <x:extLst>
@@ -292,7 +294,11 @@
     <x:pivotField name="Code" defaultSubtotal="0"/>
     <x:pivotField name="NumberOfOrders" dataField="1" defaultSubtotal="0"/>
     <x:pivotField name="Quality" defaultSubtotal="0"/>
-    <x:pivotField name="Month" axis="axisCol" defaultSubtotal="0"/>
+    <x:pivotField name="Month" axis="axisCol" defaultSubtotal="0">
+      <x:items count="1">
+        <x:item x="0"/>
+      </x:items>
+    </x:pivotField>
     <x:pivotField name="BakeDate" defaultSubtotal="0"/>
   </x:pivotFields>
   <x:rowFields count="1">
@@ -322,7 +328,9 @@
     <x:field x="4"/>
   </x:colFields>
   <x:colItems count="2">
-    <x:i/>
+    <x:i>
+      <x:x v="0"/>
+    </x:i>
     <x:i t="grand">
       <x:x/>
     </x:i>
